--- a/deloitte-chain/Deloitte_CUTC_Conference_Wide_Case.xlsx
+++ b/deloitte-chain/Deloitte_CUTC_Conference_Wide_Case.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhinav/Desktop/anewhope/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F61B8947-6CA6-4E3C-8BE7-B1CB78BD4558}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CCFF5E1-16F3-EA45-A6D5-6BA5FB583698}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17625" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="33600" windowHeight="17620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transactions" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="307">
   <si>
     <t>Date</t>
   </si>
@@ -810,12 +810,6 @@
     <t>Holg</t>
   </si>
   <si>
-    <t>position</t>
-  </si>
-  <si>
-    <t>salary</t>
-  </si>
-  <si>
     <t>Grunt1</t>
   </si>
   <si>
@@ -865,13 +859,97 @@
   </si>
   <si>
     <t>Grunt17</t>
+  </si>
+  <si>
+    <t>a12312</t>
+  </si>
+  <si>
+    <t>a3252523</t>
+  </si>
+  <si>
+    <t>a123</t>
+  </si>
+  <si>
+    <t>a435</t>
+  </si>
+  <si>
+    <t>a988990</t>
+  </si>
+  <si>
+    <t>a3435</t>
+  </si>
+  <si>
+    <t>a80098</t>
+  </si>
+  <si>
+    <t>a123123</t>
+  </si>
+  <si>
+    <t>a3423</t>
+  </si>
+  <si>
+    <t>a4353</t>
+  </si>
+  <si>
+    <t>a87687</t>
+  </si>
+  <si>
+    <t>a1212</t>
+  </si>
+  <si>
+    <t>a23423</t>
+  </si>
+  <si>
+    <t>a38786</t>
+  </si>
+  <si>
+    <t>a87878</t>
+  </si>
+  <si>
+    <t>a34234</t>
+  </si>
+  <si>
+    <t>a67567</t>
+  </si>
+  <si>
+    <t>a324242</t>
+  </si>
+  <si>
+    <t>a876867</t>
+  </si>
+  <si>
+    <t>a12</t>
+  </si>
+  <si>
+    <t>a98980</t>
+  </si>
+  <si>
+    <t>a342432</t>
+  </si>
+  <si>
+    <t>a333</t>
+  </si>
+  <si>
+    <t>a8755</t>
+  </si>
+  <si>
+    <t>a97655</t>
+  </si>
+  <si>
+    <t>a233</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Salary</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1292,10 +1370,10 @@
   <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="60"/>
     <col min="3" max="3" width="30"/>
@@ -1305,7 +1383,7 @@
     <col min="7" max="7" width="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>219</v>
       </c>
@@ -1325,12 +1403,12 @@
         <v>180</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
-        <v>12312</v>
+      <c r="B2" s="2" t="s">
+        <v>279</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
@@ -1342,12 +1420,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2">
-        <v>3252523</v>
+      <c r="B3" s="2" t="s">
+        <v>280</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>6</v>
@@ -1359,12 +1437,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2">
-        <v>12312</v>
+      <c r="B4" s="2" t="s">
+        <v>279</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>10</v>
@@ -1376,12 +1454,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="2">
-        <v>123</v>
+      <c r="B5" s="2" t="s">
+        <v>281</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>14</v>
@@ -1393,12 +1471,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="2">
-        <v>435</v>
+      <c r="B6" s="2" t="s">
+        <v>282</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>2</v>
@@ -1410,12 +1488,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="2">
-        <v>988990</v>
+      <c r="B7" s="2" t="s">
+        <v>283</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>2</v>
@@ -1427,12 +1505,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="2">
-        <v>3435</v>
+      <c r="B8" s="2" t="s">
+        <v>284</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>24</v>
@@ -1444,12 +1522,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="2">
-        <v>3435</v>
+      <c r="B9" s="2" t="s">
+        <v>284</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>28</v>
@@ -1461,12 +1539,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="2">
-        <v>435</v>
+      <c r="B10" s="2" t="s">
+        <v>282</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>32</v>
@@ -1478,12 +1556,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="2">
-        <v>80098</v>
+      <c r="B11" s="2" t="s">
+        <v>285</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>36</v>
@@ -1495,12 +1573,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="2">
-        <v>123123</v>
+      <c r="B12" s="2" t="s">
+        <v>286</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>40</v>
@@ -1512,12 +1590,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="2">
-        <v>3252523</v>
+      <c r="B13" s="2" t="s">
+        <v>280</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>2</v>
@@ -1529,12 +1607,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="2">
-        <v>435</v>
+      <c r="B14" s="2" t="s">
+        <v>282</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>47</v>
@@ -1546,12 +1624,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="2">
-        <v>3423</v>
+      <c r="B15" s="2" t="s">
+        <v>287</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>51</v>
@@ -1563,12 +1641,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="2">
-        <v>4353</v>
+      <c r="B16" s="2" t="s">
+        <v>288</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>55</v>
@@ -1580,12 +1658,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="2">
-        <v>87687</v>
+      <c r="B17" s="2" t="s">
+        <v>289</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>59</v>
@@ -1597,12 +1675,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="2">
-        <v>1212</v>
+      <c r="B18" s="2" t="s">
+        <v>290</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>63</v>
@@ -1614,12 +1692,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="2">
-        <v>23423</v>
+      <c r="B19" s="2" t="s">
+        <v>291</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>67</v>
@@ -1631,12 +1709,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B20" s="2">
-        <v>38786</v>
+      <c r="B20" s="2" t="s">
+        <v>292</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>71</v>
@@ -1648,12 +1726,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B21" s="2">
-        <v>87878</v>
+      <c r="B21" s="2" t="s">
+        <v>293</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>75</v>
@@ -1665,12 +1743,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B22" s="2">
-        <v>34234</v>
+      <c r="B22" s="2" t="s">
+        <v>294</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>79</v>
@@ -1682,12 +1760,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B23" s="2">
-        <v>67567</v>
+      <c r="B23" s="2" t="s">
+        <v>295</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>83</v>
@@ -1699,12 +1777,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B24" s="2">
-        <v>324242</v>
+      <c r="B24" s="2" t="s">
+        <v>296</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>87</v>
@@ -1716,12 +1794,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B25" s="2">
-        <v>876867</v>
+      <c r="B25" s="2" t="s">
+        <v>297</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>91</v>
@@ -1733,12 +1811,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B26" s="2">
-        <v>12</v>
+      <c r="B26" s="2" t="s">
+        <v>298</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>95</v>
@@ -1750,12 +1828,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B27" s="2">
-        <v>98980</v>
+      <c r="B27" s="2" t="s">
+        <v>299</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>99</v>
@@ -1767,12 +1845,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B28" s="2">
-        <v>3423</v>
+      <c r="B28" s="2" t="s">
+        <v>287</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>103</v>
@@ -1784,12 +1862,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B29" s="2">
-        <v>342432</v>
+      <c r="B29" s="2" t="s">
+        <v>300</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>107</v>
@@ -1801,12 +1879,12 @@
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B30" s="2">
-        <v>12312</v>
+      <c r="B30" s="2" t="s">
+        <v>279</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>111</v>
@@ -1818,12 +1896,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="A31" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B31" s="2">
-        <v>3252523</v>
+      <c r="B31" s="2" t="s">
+        <v>280</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>115</v>
@@ -1835,12 +1913,12 @@
         <v>117</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="A32" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B32" s="2">
-        <v>342432</v>
+      <c r="B32" s="2" t="s">
+        <v>300</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>119</v>
@@ -1852,12 +1930,12 @@
         <v>121</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6">
       <c r="A33" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B33" s="2">
-        <v>123123</v>
+      <c r="B33" s="2" t="s">
+        <v>286</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>123</v>
@@ -1869,12 +1947,12 @@
         <v>125</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6">
       <c r="A34" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B34" s="2">
-        <v>988990</v>
+      <c r="B34" s="2" t="s">
+        <v>283</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>127</v>
@@ -1886,12 +1964,12 @@
         <v>129</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6">
       <c r="A35" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B35" s="2">
-        <v>80098</v>
+      <c r="B35" s="2" t="s">
+        <v>285</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>131</v>
@@ -1903,12 +1981,12 @@
         <v>133</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6">
       <c r="A36" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B36" s="2">
-        <v>80098</v>
+      <c r="B36" s="2" t="s">
+        <v>285</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>135</v>
@@ -1920,12 +1998,12 @@
         <v>137</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6">
       <c r="A37" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B37" s="2">
-        <v>123123</v>
+      <c r="B37" s="2" t="s">
+        <v>286</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>139</v>
@@ -1937,12 +2015,12 @@
         <v>141</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6">
       <c r="A38" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B38" s="2">
-        <v>123123</v>
+      <c r="B38" s="2" t="s">
+        <v>286</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>143</v>
@@ -1954,12 +2032,12 @@
         <v>145</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6">
       <c r="A39" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B39" s="2">
-        <v>435</v>
+      <c r="B39" s="2" t="s">
+        <v>282</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>147</v>
@@ -1971,12 +2049,12 @@
         <v>149</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6">
       <c r="A40" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B40" s="2">
-        <v>333</v>
+      <c r="B40" s="2" t="s">
+        <v>301</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>151</v>
@@ -1988,12 +2066,12 @@
         <v>153</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6">
       <c r="A41" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B41" s="2">
-        <v>988990</v>
+      <c r="B41" s="2" t="s">
+        <v>283</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>155</v>
@@ -2005,12 +2083,12 @@
         <v>157</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6">
       <c r="A42" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B42" s="2">
-        <v>3435</v>
+      <c r="B42" s="2" t="s">
+        <v>284</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>159</v>
@@ -2022,12 +2100,12 @@
         <v>161</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6">
       <c r="A43" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B43" s="2">
-        <v>8755</v>
+      <c r="B43" s="2" t="s">
+        <v>302</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>163</v>
@@ -2039,12 +2117,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6">
       <c r="A44" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B44" s="2">
-        <v>97655</v>
+      <c r="B44" s="2" t="s">
+        <v>303</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>167</v>
@@ -2056,12 +2134,12 @@
         <v>169</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6">
       <c r="A45" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B45" s="2">
-        <v>333</v>
+      <c r="B45" s="2" t="s">
+        <v>301</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>171</v>
@@ -2073,12 +2151,12 @@
         <v>173</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6">
       <c r="A46" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B46" s="2">
-        <v>233</v>
+      <c r="B46" s="2" t="s">
+        <v>304</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>175</v>
@@ -2100,17 +2178,17 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>219</v>
       </c>
@@ -2142,7 +2220,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>123</v>
       </c>
@@ -2174,7 +2252,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>435</v>
       </c>
@@ -2206,7 +2284,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>3435</v>
       </c>
@@ -2238,7 +2316,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" s="4">
         <v>3252523</v>
       </c>
@@ -2270,7 +2348,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>80098</v>
       </c>
@@ -2302,7 +2380,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>12312</v>
       </c>
@@ -2334,7 +2412,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>342432</v>
       </c>
@@ -2366,7 +2444,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>123123</v>
       </c>
@@ -2398,7 +2476,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>988990</v>
       </c>
@@ -2440,17 +2518,17 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>219</v>
       </c>
@@ -2461,10 +2539,10 @@
         <v>182</v>
       </c>
       <c r="D1" t="s">
-        <v>262</v>
+        <v>305</v>
       </c>
       <c r="E1" t="s">
-        <v>263</v>
+        <v>306</v>
       </c>
       <c r="F1" t="s">
         <v>183</v>
@@ -2482,7 +2560,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" s="2">
         <v>3423</v>
       </c>
@@ -2493,7 +2571,7 @@
         <v>189</v>
       </c>
       <c r="D2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E2" s="5">
         <v>50000</v>
@@ -2514,7 +2592,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" s="2">
         <v>4353</v>
       </c>
@@ -2525,7 +2603,7 @@
         <v>191</v>
       </c>
       <c r="D3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E3" s="5">
         <v>20000</v>
@@ -2546,7 +2624,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" s="2">
         <v>87687</v>
       </c>
@@ -2557,7 +2635,7 @@
         <v>191</v>
       </c>
       <c r="D4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E4" s="5">
         <v>78000</v>
@@ -2578,7 +2656,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" s="2">
         <v>1212</v>
       </c>
@@ -2589,7 +2667,7 @@
         <v>194</v>
       </c>
       <c r="D5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E5" s="5">
         <v>23000</v>
@@ -2610,7 +2688,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" s="2">
         <v>23423</v>
       </c>
@@ -2621,7 +2699,7 @@
         <v>196</v>
       </c>
       <c r="D6" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E6" s="5">
         <v>51000</v>
@@ -2642,7 +2720,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" s="2">
         <v>38786</v>
       </c>
@@ -2653,7 +2731,7 @@
         <v>198</v>
       </c>
       <c r="D7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E7" s="5">
         <v>49000</v>
@@ -2674,7 +2752,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" s="2">
         <v>87878</v>
       </c>
@@ -2685,7 +2763,7 @@
         <v>200</v>
       </c>
       <c r="D8" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E8" s="5">
         <v>43000</v>
@@ -2706,7 +2784,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" s="2">
         <v>34234</v>
       </c>
@@ -2717,7 +2795,7 @@
         <v>202</v>
       </c>
       <c r="D9" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E9" s="5">
         <v>70000</v>
@@ -2738,7 +2816,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" s="2">
         <v>67567</v>
       </c>
@@ -2749,7 +2827,7 @@
         <v>204</v>
       </c>
       <c r="D10" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E10" s="5">
         <v>65000</v>
@@ -2770,7 +2848,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11" s="2">
         <v>324242</v>
       </c>
@@ -2781,7 +2859,7 @@
         <v>206</v>
       </c>
       <c r="D11" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E11" s="5">
         <v>62000</v>
@@ -2802,7 +2880,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="A12" s="2">
         <v>876867</v>
       </c>
@@ -2813,7 +2891,7 @@
         <v>208</v>
       </c>
       <c r="D12" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E12" s="5">
         <v>100000</v>
@@ -2834,7 +2912,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -2845,7 +2923,7 @@
         <v>210</v>
       </c>
       <c r="D13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E13" s="5">
         <v>91000</v>
@@ -2866,7 +2944,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14" s="2">
         <v>98980</v>
       </c>
@@ -2877,7 +2955,7 @@
         <v>212</v>
       </c>
       <c r="D14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E14" s="5">
         <v>22500</v>
@@ -2898,7 +2976,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="A15" s="2">
         <v>8755</v>
       </c>
@@ -2909,7 +2987,7 @@
         <v>214</v>
       </c>
       <c r="D15" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E15" s="5">
         <v>86750</v>
@@ -2930,7 +3008,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10">
       <c r="A16" s="2">
         <v>97655</v>
       </c>
@@ -2941,7 +3019,7 @@
         <v>216</v>
       </c>
       <c r="D16" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E16" s="5">
         <v>195720</v>
@@ -2962,7 +3040,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10">
       <c r="A17" s="2">
         <v>333</v>
       </c>
@@ -2973,7 +3051,7 @@
         <v>261</v>
       </c>
       <c r="D17" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E17" s="5">
         <v>99500</v>
@@ -2994,7 +3072,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10">
       <c r="A18" s="2">
         <v>233</v>
       </c>
@@ -3005,7 +3083,7 @@
         <v>218</v>
       </c>
       <c r="D18" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E18" s="5">
         <v>999800000</v>
